--- a/app/Helpers/Excel/template/t_uriage.xlsx
+++ b/app/Helpers/Excel/template/t_uriage.xlsx
@@ -328,9 +328,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="165" formatCode="yy/mm/dd;@"/>
-    <numFmt numFmtId="166" formatCode="mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd;@"/>
+    <numFmt numFmtId="168" formatCode="yyyy/mm/dd\ h:mm;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -474,7 +474,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -483,7 +483,7 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,20 +492,20 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -893,9 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
   <cols>
@@ -917,13 +915,13 @@
     </row>
     <row r="3" spans="1:62">
       <c r="AS3" s="2"/>
-      <c r="BA3" s="19"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="19"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
       <c r="BH3" s="18"/>
       <c r="BI3" s="18"/>
       <c r="BJ3" s="18"/>
@@ -1013,35 +1011,35 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="20" t="s">
+      <c r="AH6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
       <c r="AK6" s="5"/>
-      <c r="AL6" s="20" t="s">
+      <c r="AL6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="20"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
       <c r="AO6" s="5"/>
-      <c r="AP6" s="20" t="s">
+      <c r="AP6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
       <c r="AS6" s="5"/>
-      <c r="AT6" s="20" t="s">
+      <c r="AT6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AU6" s="20"/>
-      <c r="AV6" s="20"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
       <c r="AW6" s="5"/>
-      <c r="AX6" s="20" t="s">
+      <c r="AX6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="20"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5" t="s">
         <v>29</v>
@@ -1362,6 +1360,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010020267A34495822418B308C78BD5EE8C1" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="1631b6d42e5f1773eb0814b0d0e1b657">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f347bcba-d2fa-4112-b439-29dfe2332a53" xmlns:ns3="6d1985a4-7eba-4484-9d35-fae32cfcd037" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79045f469ce287c3368c6be2d0ac0e45" ns2:_="" ns3:_="">
     <xsd:import namespace="f347bcba-d2fa-4112-b439-29dfe2332a53"/>
@@ -1552,22 +1565,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{025EAFA2-461C-4B4F-A9E2-5C3A205A97A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5206B66B-0412-4EDC-8A4A-51105F5A35BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f347bcba-d2fa-4112-b439-29dfe2332a53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6d1985a4-7eba-4484-9d35-fae32cfcd037"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A02DAC-B1BC-4BAC-9E3A-A9B48275E89C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1584,29 +1607,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{025EAFA2-461C-4B4F-A9E2-5C3A205A97A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5206B66B-0412-4EDC-8A4A-51105F5A35BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f347bcba-d2fa-4112-b439-29dfe2332a53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6d1985a4-7eba-4484-9d35-fae32cfcd037"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>